--- a/tabular/genus/dependo-refseq-feature-locations.xlsx
+++ b/tabular/genus/dependo-refseq-feature-locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/AAV-GLUE/tabular/genus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE9E5E2-A22C-AA4C-88A5-F9255479EE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA0E683-2230-1B45-8AD1-A76A2962557F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="460" windowWidth="18940" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6140" yWindow="500" windowWidth="18940" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
   <si>
     <t>referenceName</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>whole_genome</t>
+  </si>
+  <si>
+    <t>REF_MAAV</t>
   </si>
 </sst>
 </file>
@@ -4033,8 +4036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1479"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:D45"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D45" sqref="A1:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4678,13 +4681,47 @@
         <v>4280</v>
       </c>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="8">
+        <v>3472</v>
+      </c>
+    </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
+      <c r="A47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1289</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1298</v>
+      </c>
+      <c r="D48" s="8">
+        <v>3472</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>

--- a/tabular/genus/dependo-refseq-feature-locations.xlsx
+++ b/tabular/genus/dependo-refseq-feature-locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA0E683-2230-1B45-8AD1-A76A2962557F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6EA74D-35CA-2D48-AC6A-93BC0B4957DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="500" windowWidth="18940" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31440" yWindow="500" windowWidth="18940" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4036,8 +4036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D45" sqref="A1:D48"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4706,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="8">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">

--- a/tabular/genus/dependo-refseq-feature-locations.xlsx
+++ b/tabular/genus/dependo-refseq-feature-locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6EA74D-35CA-2D48-AC6A-93BC0B4957DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01C2F33-EECE-514D-87FA-073A2DF8B43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31440" yWindow="500" windowWidth="18940" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="28">
   <si>
     <t>referenceName</t>
   </si>
@@ -4034,10 +4034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1479"/>
+  <dimension ref="A1:E1495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C35" sqref="A1:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4070,13 +4070,13 @@
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4">
-        <v>318</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2192</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4726</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4084,27 +4084,27 @@
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4">
-        <v>2209</v>
+        <v>318</v>
       </c>
       <c r="D3" s="7">
-        <v>4419</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4">
-        <v>317</v>
+        <v>2209</v>
       </c>
       <c r="D4" s="7">
-        <v>2191</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4112,875 +4112,1033 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>317</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C7" s="4">
         <v>2208</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D7" s="7">
         <v>4418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4">
-        <v>372</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2260</v>
-      </c>
-      <c r="D7" s="7">
-        <v>4464</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="4">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>2191</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4">
-        <v>2207</v>
+        <v>372</v>
       </c>
       <c r="D9" s="7">
-        <v>4381</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4">
-        <v>320</v>
+        <v>2260</v>
       </c>
       <c r="D10" s="7">
-        <v>2191</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="4">
-        <v>2208</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>4418</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
+      <c r="A12" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="4">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>2205</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
+      <c r="A13" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="4">
-        <v>2222</v>
+        <v>2207</v>
       </c>
       <c r="D13" s="7">
-        <v>4435</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4">
-        <v>227</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="4">
+        <v>320</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4">
-        <v>2121</v>
-      </c>
-      <c r="D15" s="7">
-        <v>4337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C16" s="4">
-        <v>228</v>
+        <v>2208</v>
       </c>
       <c r="D16" s="7">
-        <v>2099</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="4">
-        <v>2116</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>4329</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="D18" s="7">
-        <v>1869</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4">
-        <v>1886</v>
+        <v>2222</v>
       </c>
       <c r="D19" s="7">
-        <v>4102</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>1869</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4">
-        <v>1886</v>
+        <v>227</v>
       </c>
       <c r="D21" s="7">
-        <v>4087</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4">
-        <v>103</v>
+        <v>2121</v>
       </c>
       <c r="D22" s="7">
-        <v>1968</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="4">
-        <v>1985</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>4213</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="4">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="D24" s="7">
-        <v>2012</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="4">
-        <v>2030</v>
+        <v>2116</v>
       </c>
       <c r="D25" s="7">
-        <v>4210</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4">
-        <v>347</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>2179</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C27" s="4">
-        <v>2195</v>
+        <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>4375</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C28" s="4">
-        <v>537</v>
+        <v>1886</v>
       </c>
       <c r="D28" s="7">
-        <v>2420</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4">
-        <v>2439</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>4637</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="4">
-        <v>548</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>2431</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="4">
-        <v>2450</v>
+        <v>1886</v>
       </c>
       <c r="D31" s="7">
-        <v>4648</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C32" s="4">
-        <v>335</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2206</v>
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4213</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="4">
+        <v>103</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="4">
-        <v>2223</v>
-      </c>
-      <c r="D33" s="4">
-        <v>4433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4">
+        <v>1985</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D34" s="10">
-        <v>4339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="4">
-        <v>314</v>
-      </c>
-      <c r="D35" s="4">
-        <v>2032</v>
+      <c r="D35" s="7">
+        <v>4432</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="4">
+        <v>324</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="4">
-        <v>2049</v>
-      </c>
-      <c r="D36" s="4">
-        <v>4280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C37" s="4">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10">
-        <v>2977</v>
+        <v>2030</v>
+      </c>
+      <c r="D37" s="7">
+        <v>4210</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C38" s="4">
-        <v>3</v>
-      </c>
-      <c r="D38" s="4">
-        <v>764</v>
+        <v>1</v>
+      </c>
+      <c r="D38" s="7">
+        <v>4636</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="4">
+        <v>347</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="4">
-        <v>1188</v>
-      </c>
-      <c r="D39" s="4">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C40" s="4">
-        <v>1</v>
-      </c>
-      <c r="D40" s="10">
-        <v>4286</v>
+        <v>2195</v>
+      </c>
+      <c r="D40" s="7">
+        <v>4375</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C41" s="4">
-        <v>200</v>
-      </c>
-      <c r="D41" s="4">
-        <v>2041</v>
+        <v>1</v>
+      </c>
+      <c r="D41" s="7">
+        <v>5106</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="4">
-        <v>2059</v>
-      </c>
-      <c r="D42" s="4">
-        <v>4233</v>
+        <v>537</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2420</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C43" s="4">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4">
-        <v>4395</v>
+        <v>2439</v>
+      </c>
+      <c r="D43" s="7">
+        <v>4637</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C44" s="4">
-        <v>291</v>
-      </c>
-      <c r="D44" s="4">
-        <v>2093</v>
+        <v>1</v>
+      </c>
+      <c r="D44" s="7">
+        <v>5132</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="4">
-        <v>2124</v>
-      </c>
-      <c r="D45" s="4">
-        <v>4280</v>
+        <v>548</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2431</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C46" s="4">
-        <v>1</v>
-      </c>
-      <c r="D46" s="8">
-        <v>3472</v>
+        <v>2450</v>
+      </c>
+      <c r="D46" s="7">
+        <v>4648</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
       </c>
-      <c r="D47" s="8">
-        <v>1287</v>
-      </c>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="4">
+        <v>335</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2223</v>
+      </c>
+      <c r="D49" s="4">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="4">
+        <v>314</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="4">
+        <v>2049</v>
+      </c>
+      <c r="D52" s="4">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="4">
+        <v>3</v>
+      </c>
+      <c r="D54" s="4">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1188</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="10">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="4">
+        <v>200</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2059</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="4">
+        <v>291</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="4">
+        <v>2124</v>
+      </c>
+      <c r="D61" s="4">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="D62" s="8">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C64" s="4">
         <v>1298</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D64" s="8">
         <v>3472</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1"/>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="1"/>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="1"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="1"/>
     </row>
@@ -5036,87 +5194,87 @@
       <c r="A125" s="2"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E145" s="1"/>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E146" s="1"/>
-    </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E147" s="1"/>
-    </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E148" s="1"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="2"/>
-      <c r="B201" s="1"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="2"/>
-      <c r="B202" s="1"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="2"/>
-      <c r="B203" s="1"/>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="2"/>
-      <c r="B204" s="1"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="2"/>
-      <c r="B205" s="1"/>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="2"/>
-      <c r="B206" s="1"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="2"/>
-      <c r="B207" s="1"/>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="2"/>
-      <c r="B208" s="1"/>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="2"/>
-      <c r="B209" s="1"/>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="2"/>
-      <c r="B210" s="1"/>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="2"/>
-      <c r="B211" s="1"/>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="2"/>
-      <c r="B212" s="1"/>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="2"/>
-      <c r="B213" s="1"/>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="2"/>
-      <c r="B214" s="1"/>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="2"/>
-      <c r="B215" s="1"/>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="2"/>
-      <c r="B216" s="1"/>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="2"/>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="2"/>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="2"/>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="2"/>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="2"/>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="2"/>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="2"/>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="2"/>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="2"/>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="2"/>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="2"/>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="2"/>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="2"/>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E164" s="1"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
@@ -5152,6 +5310,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
+      <c r="B225" s="1"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
@@ -5181,175 +5340,238 @@
       <c r="A232" s="2"/>
       <c r="B232" s="1"/>
     </row>
-    <row r="915" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C915" s="2"/>
-    </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1051" s="2"/>
-    </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1052" s="2"/>
-    </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1177" s="2"/>
-    </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1178" s="2"/>
-    </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1179" s="2"/>
-    </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1180" s="2"/>
-    </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1181" s="2"/>
-    </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1182" s="2"/>
-    </row>
-    <row r="1227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C1227" s="2"/>
-      <c r="D1227" s="9"/>
-    </row>
-    <row r="1228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C1228" s="2"/>
-      <c r="D1228" s="9"/>
-    </row>
-    <row r="1229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C1229" s="2"/>
-      <c r="D1229" s="9"/>
-    </row>
-    <row r="1231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1231" s="2"/>
-    </row>
-    <row r="1232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1232" s="2"/>
-    </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1233" s="2"/>
-    </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1234" s="2"/>
-    </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1235" s="2"/>
-    </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1254" s="2"/>
-    </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1255" s="2"/>
-    </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1256" s="2"/>
-    </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1257" s="2"/>
-    </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1258" s="2"/>
-    </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1259" s="2"/>
-    </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1260" s="2"/>
-    </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1262" s="2"/>
-    </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1263" s="2"/>
-    </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1264" s="2"/>
-    </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1265" s="2"/>
-    </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1266" s="2"/>
-    </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1267" s="2"/>
-    </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1319" s="2"/>
-    </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1320" s="2"/>
-    </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1321" s="2"/>
-    </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1322" s="2"/>
-    </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1324" s="2"/>
-    </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1325" s="2"/>
-    </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1326" s="2"/>
-    </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1327" s="2"/>
-    </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1362" s="2"/>
-    </row>
-    <row r="1363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1363" s="2"/>
-    </row>
-    <row r="1364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1364" s="2"/>
-    </row>
-    <row r="1365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1365" s="2"/>
-    </row>
-    <row r="1366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1366" s="2"/>
-    </row>
-    <row r="1367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1367" s="2"/>
-    </row>
-    <row r="1409" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C1409" s="2"/>
-      <c r="D1409" s="9"/>
-    </row>
-    <row r="1410" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1410" s="2"/>
-      <c r="C1410" s="2"/>
-      <c r="D1410" s="9"/>
-    </row>
-    <row r="1411" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1411" s="2"/>
-      <c r="C1411" s="2"/>
-      <c r="D1411" s="9"/>
-    </row>
-    <row r="1412" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1412" s="2"/>
-      <c r="C1412" s="2"/>
-      <c r="D1412" s="9"/>
-    </row>
-    <row r="1413" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C1413" s="2"/>
-      <c r="D1413" s="9"/>
-    </row>
-    <row r="1476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1476" s="2"/>
-    </row>
-    <row r="1477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1477" s="2"/>
-    </row>
-    <row r="1478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1478" s="2"/>
-    </row>
-    <row r="1479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1479" s="2"/>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="2"/>
+      <c r="B233" s="1"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="2"/>
+      <c r="B234" s="1"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="2"/>
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="2"/>
+      <c r="B236" s="1"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="2"/>
+      <c r="B237" s="1"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="2"/>
+      <c r="B238" s="1"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="2"/>
+      <c r="B239" s="1"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="2"/>
+      <c r="B240" s="1"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="2"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="2"/>
+      <c r="B242" s="1"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="2"/>
+      <c r="B243" s="1"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="2"/>
+      <c r="B244" s="1"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="2"/>
+      <c r="B245" s="1"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="2"/>
+      <c r="B246" s="1"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="2"/>
+      <c r="B247" s="1"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="2"/>
+      <c r="B248" s="1"/>
+    </row>
+    <row r="931" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C931" s="2"/>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1067" s="2"/>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1068" s="2"/>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1193" s="2"/>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1194" s="2"/>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1195" s="2"/>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1196" s="2"/>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1197" s="2"/>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1198" s="2"/>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1243" s="2"/>
+      <c r="D1243" s="9"/>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1244" s="2"/>
+      <c r="D1244" s="9"/>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1245" s="2"/>
+      <c r="D1245" s="9"/>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1247" s="2"/>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1248" s="2"/>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1249" s="2"/>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1250" s="2"/>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1251" s="2"/>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1270" s="2"/>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1271" s="2"/>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1272" s="2"/>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1273" s="2"/>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1274" s="2"/>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1275" s="2"/>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1276" s="2"/>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1278" s="2"/>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1279" s="2"/>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1280" s="2"/>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1281" s="2"/>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1282" s="2"/>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1283" s="2"/>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1335" s="2"/>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1336" s="2"/>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1337" s="2"/>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1338" s="2"/>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1340" s="2"/>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1341" s="2"/>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1342" s="2"/>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1343" s="2"/>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1378" s="2"/>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1379" s="2"/>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1380" s="2"/>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1381" s="2"/>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1382" s="2"/>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1383" s="2"/>
+    </row>
+    <row r="1425" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C1425" s="2"/>
+      <c r="D1425" s="9"/>
+    </row>
+    <row r="1426" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1426" s="2"/>
+      <c r="C1426" s="2"/>
+      <c r="D1426" s="9"/>
+    </row>
+    <row r="1427" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1427" s="2"/>
+      <c r="C1427" s="2"/>
+      <c r="D1427" s="9"/>
+    </row>
+    <row r="1428" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1428" s="2"/>
+      <c r="C1428" s="2"/>
+      <c r="D1428" s="9"/>
+    </row>
+    <row r="1429" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C1429" s="2"/>
+      <c r="D1429" s="9"/>
+    </row>
+    <row r="1492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1492" s="2"/>
+    </row>
+    <row r="1493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1493" s="2"/>
+    </row>
+    <row r="1494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1494" s="2"/>
+    </row>
+    <row r="1495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1495" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/genus/dependo-refseq-feature-locations.xlsx
+++ b/tabular/genus/dependo-refseq-feature-locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01C2F33-EECE-514D-87FA-073A2DF8B43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6697FC-3F80-E144-92F3-AF4DBF284DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31440" yWindow="500" windowWidth="18940" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4036,8 +4036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C35" sqref="A1:D64"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D43" sqref="A1:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4705,7 +4705,9 @@
       <c r="C47" s="4">
         <v>1</v>
       </c>
-      <c r="D47" s="7"/>
+      <c r="D47" s="7">
+        <v>4718</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
@@ -4777,7 +4779,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>23</v>
       </c>
@@ -4787,7 +4789,7 @@
       <c r="C53" s="4">
         <v>1</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="4">
         <v>2977</v>
       </c>
     </row>
@@ -4819,7 +4821,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>24</v>
       </c>
@@ -4829,7 +4831,7 @@
       <c r="C56" s="4">
         <v>1</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="4">
         <v>4286</v>
       </c>
     </row>
@@ -4913,7 +4915,7 @@
       <c r="C62" s="4">
         <v>1</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="4">
         <v>3472</v>
       </c>
     </row>
@@ -4927,7 +4929,7 @@
       <c r="C63" s="4">
         <v>1</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="4">
         <v>1287</v>
       </c>
     </row>
@@ -4941,7 +4943,7 @@
       <c r="C64" s="4">
         <v>1298</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="4">
         <v>3472</v>
       </c>
     </row>

--- a/tabular/genus/dependo-refseq-feature-locations.xlsx
+++ b/tabular/genus/dependo-refseq-feature-locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6697FC-3F80-E144-92F3-AF4DBF284DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035D65B6-B5A7-FB4A-9C69-B326498D0FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31440" yWindow="500" windowWidth="18940" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14620" yWindow="1740" windowWidth="22440" windowHeight="23460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="32">
   <si>
     <t>referenceName</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>REF_MAAV</t>
+  </si>
+  <si>
+    <t>5IR</t>
+  </si>
+  <si>
+    <t>3IR</t>
+  </si>
+  <si>
+    <t>5UTR</t>
+  </si>
+  <si>
+    <t>3UTR</t>
   </si>
 </sst>
 </file>
@@ -4034,10 +4046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1495"/>
+  <dimension ref="A1:E1503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D43" sqref="A1:D64"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4655,335 +4667,409 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>5132</v>
+        <v>536</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C45" s="4">
-        <v>548</v>
+        <v>1</v>
       </c>
       <c r="D45" s="7">
-        <v>2431</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="4">
-        <v>2450</v>
+        <v>31</v>
+      </c>
+      <c r="C46" s="7">
+        <v>4638</v>
       </c>
       <c r="D46" s="7">
-        <v>4648</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="4">
-        <v>1</v>
-      </c>
-      <c r="D47" s="7">
-        <v>4718</v>
+        <v>29</v>
+      </c>
+      <c r="C47" s="7">
+        <v>4678</v>
+      </c>
+      <c r="D47" s="8">
+        <v>5106</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C48" s="4">
-        <v>335</v>
-      </c>
-      <c r="D48" s="4">
-        <v>2206</v>
+        <v>1</v>
+      </c>
+      <c r="D48" s="7">
+        <v>5132</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="4">
+        <v>548</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="4">
-        <v>2223</v>
-      </c>
-      <c r="D49" s="4">
-        <v>4433</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C50" s="4">
-        <v>1</v>
-      </c>
-      <c r="D50" s="10">
-        <v>4339</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2450</v>
+      </c>
+      <c r="D50" s="7">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="4">
-        <v>314</v>
-      </c>
-      <c r="D51" s="4">
-        <v>2032</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C52" s="4">
-        <v>2049</v>
-      </c>
-      <c r="D52" s="4">
-        <v>4280</v>
+        <v>1</v>
+      </c>
+      <c r="D52" s="7">
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="4">
-        <v>1</v>
-      </c>
-      <c r="D53" s="4">
-        <v>2977</v>
+        <v>31</v>
+      </c>
+      <c r="C53" s="7">
+        <v>4649</v>
+      </c>
+      <c r="D53" s="7">
+        <v>5132</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="4">
-        <v>3</v>
-      </c>
-      <c r="D54" s="4">
-        <v>764</v>
+        <v>29</v>
+      </c>
+      <c r="C54" s="7">
+        <v>4663</v>
+      </c>
+      <c r="D54" s="8">
+        <v>5132</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C55" s="4">
-        <v>1188</v>
-      </c>
-      <c r="D55" s="4">
-        <v>2930</v>
+        <v>1</v>
+      </c>
+      <c r="D55" s="7">
+        <v>4718</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C56" s="4">
-        <v>1</v>
+        <v>335</v>
       </c>
       <c r="D56" s="4">
-        <v>4286</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="4">
+        <v>2223</v>
+      </c>
+      <c r="D57" s="4">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="10">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="4">
-        <v>200</v>
-      </c>
-      <c r="D57" s="4">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="4">
-        <v>2059</v>
-      </c>
-      <c r="D58" s="4">
-        <v>4233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C59" s="4">
-        <v>1</v>
+        <v>314</v>
       </c>
       <c r="D59" s="4">
-        <v>4395</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C60" s="4">
-        <v>291</v>
+        <v>2049</v>
       </c>
       <c r="D60" s="4">
-        <v>2093</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C61" s="4">
-        <v>2124</v>
+        <v>1</v>
       </c>
       <c r="D61" s="4">
-        <v>4280</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C62" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" s="4">
-        <v>3472</v>
+        <v>764</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C63" s="4">
-        <v>1</v>
+        <v>1188</v>
       </c>
       <c r="D63" s="4">
-        <v>1287</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="D64" s="4">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="4">
+        <v>200</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="4">
+        <v>2059</v>
+      </c>
+      <c r="D66" s="4">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="4">
+        <v>291</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="4">
+        <v>2124</v>
+      </c>
+      <c r="D69" s="4">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C72" s="4">
         <v>1298</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D72" s="4">
         <v>3472</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="1"/>
-      <c r="D72" s="9"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
-      <c r="D73" s="9"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
@@ -5012,199 +5098,201 @@
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="1"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
     </row>
@@ -5260,55 +5348,55 @@
       <c r="A141" s="2"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E159" s="1"/>
-    </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E160" s="1"/>
-    </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E161" s="1"/>
-    </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E162" s="1"/>
-    </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E163" s="1"/>
-    </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E164" s="1"/>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="2"/>
-      <c r="B217" s="1"/>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="2"/>
-      <c r="B218" s="1"/>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="2"/>
-      <c r="B219" s="1"/>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="2"/>
-      <c r="B220" s="1"/>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="2"/>
-      <c r="B221" s="1"/>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="2"/>
-      <c r="B222" s="1"/>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="2"/>
-      <c r="B223" s="1"/>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="2"/>
-      <c r="B224" s="1"/>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="2"/>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="2"/>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="2"/>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="2"/>
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="2"/>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="2"/>
+      <c r="B149" s="1"/>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E172" s="1"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
@@ -5376,6 +5464,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
+      <c r="B241" s="1"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
@@ -5405,80 +5494,90 @@
       <c r="A248" s="2"/>
       <c r="B248" s="1"/>
     </row>
-    <row r="931" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C931" s="2"/>
-    </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1067" s="2"/>
-    </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1068" s="2"/>
-    </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1193" s="2"/>
-    </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1194" s="2"/>
-    </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1195" s="2"/>
-    </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1196" s="2"/>
-    </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1197" s="2"/>
-    </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1198" s="2"/>
-    </row>
-    <row r="1243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C1243" s="2"/>
-      <c r="D1243" s="9"/>
-    </row>
-    <row r="1244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C1244" s="2"/>
-      <c r="D1244" s="9"/>
-    </row>
-    <row r="1245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C1245" s="2"/>
-      <c r="D1245" s="9"/>
-    </row>
-    <row r="1247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1247" s="2"/>
-    </row>
-    <row r="1248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1248" s="2"/>
-    </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1249" s="2"/>
-    </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1250" s="2"/>
-    </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1251" s="2"/>
-    </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1270" s="2"/>
-    </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1271" s="2"/>
-    </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1272" s="2"/>
-    </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1273" s="2"/>
-    </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1274" s="2"/>
-    </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1275" s="2"/>
-    </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1276" s="2"/>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="2"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="2"/>
+      <c r="B250" s="1"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="2"/>
+      <c r="B251" s="1"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="2"/>
+      <c r="B252" s="1"/>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="2"/>
+      <c r="B253" s="1"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="2"/>
+      <c r="B254" s="1"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="2"/>
+      <c r="B255" s="1"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="2"/>
+      <c r="B256" s="1"/>
+    </row>
+    <row r="939" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C939" s="2"/>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1075" s="2"/>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1076" s="2"/>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1201" s="2"/>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1202" s="2"/>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1203" s="2"/>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1204" s="2"/>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1205" s="2"/>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1206" s="2"/>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1251" s="2"/>
+      <c r="D1251" s="9"/>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1252" s="2"/>
+      <c r="D1252" s="9"/>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1253" s="2"/>
+      <c r="D1253" s="9"/>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1255" s="2"/>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1256" s="2"/>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1257" s="2"/>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1258" s="2"/>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1259" s="2"/>
     </row>
     <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1278" s="2"/>
@@ -5498,82 +5597,103 @@
     <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1283" s="2"/>
     </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1335" s="2"/>
-    </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1336" s="2"/>
-    </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1337" s="2"/>
-    </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1338" s="2"/>
-    </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1340" s="2"/>
-    </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1341" s="2"/>
-    </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1342" s="2"/>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1284" s="2"/>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1286" s="2"/>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1287" s="2"/>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1288" s="2"/>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1289" s="2"/>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1290" s="2"/>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1291" s="2"/>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1343" s="2"/>
     </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1378" s="2"/>
-    </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1379" s="2"/>
-    </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1380" s="2"/>
-    </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1381" s="2"/>
-    </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1382" s="2"/>
-    </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1383" s="2"/>
-    </row>
-    <row r="1425" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C1425" s="2"/>
-      <c r="D1425" s="9"/>
-    </row>
-    <row r="1426" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1426" s="2"/>
-      <c r="C1426" s="2"/>
-      <c r="D1426" s="9"/>
-    </row>
-    <row r="1427" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1427" s="2"/>
-      <c r="C1427" s="2"/>
-      <c r="D1427" s="9"/>
-    </row>
-    <row r="1428" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1428" s="2"/>
-      <c r="C1428" s="2"/>
-      <c r="D1428" s="9"/>
-    </row>
-    <row r="1429" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C1429" s="2"/>
-      <c r="D1429" s="9"/>
-    </row>
-    <row r="1492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1492" s="2"/>
-    </row>
-    <row r="1493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1493" s="2"/>
-    </row>
-    <row r="1494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1494" s="2"/>
-    </row>
-    <row r="1495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1495" s="2"/>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1344" s="2"/>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1345" s="2"/>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1346" s="2"/>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1348" s="2"/>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1349" s="2"/>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1350" s="2"/>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1351" s="2"/>
+    </row>
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1386" s="2"/>
+    </row>
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1387" s="2"/>
+    </row>
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1388" s="2"/>
+    </row>
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1389" s="2"/>
+    </row>
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1390" s="2"/>
+    </row>
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1391" s="2"/>
+    </row>
+    <row r="1433" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C1433" s="2"/>
+      <c r="D1433" s="9"/>
+    </row>
+    <row r="1434" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1434" s="2"/>
+      <c r="C1434" s="2"/>
+      <c r="D1434" s="9"/>
+    </row>
+    <row r="1435" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1435" s="2"/>
+      <c r="C1435" s="2"/>
+      <c r="D1435" s="9"/>
+    </row>
+    <row r="1436" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1436" s="2"/>
+      <c r="C1436" s="2"/>
+      <c r="D1436" s="9"/>
+    </row>
+    <row r="1437" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C1437" s="2"/>
+      <c r="D1437" s="9"/>
+    </row>
+    <row r="1500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1500" s="2"/>
+    </row>
+    <row r="1501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1501" s="2"/>
+    </row>
+    <row r="1502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1502" s="2"/>
+    </row>
+    <row r="1503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1503" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/genus/dependo-refseq-feature-locations.xlsx
+++ b/tabular/genus/dependo-refseq-feature-locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035D65B6-B5A7-FB4A-9C69-B326498D0FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BC9D55-A4A8-FC43-AD5F-4A40147E6B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14620" yWindow="1740" windowWidth="22440" windowHeight="23460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4049,7 +4049,7 @@
   <dimension ref="A1:E1503"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4770,8 +4770,12 @@
       <c r="B51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="7"/>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
+        <v>547</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
